--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="18195" windowHeight="8895" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="18195" windowHeight="8895" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,17 @@
     <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
     <sheet name="cont1_whenEatenVsEnteredTable" sheetId="12" r:id="rId12"/>
     <sheet name="cont1_meanStartsPerDay" sheetId="13" r:id="rId13"/>
+    <sheet name="chap2" sheetId="14" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="655">
   <si>
     <t>User Search Request</t>
   </si>
@@ -2051,6 +2052,387 @@
   <si>
     <t xml:space="preserve">Min: </t>
   </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Challenges</t>
+  </si>
+  <si>
+    <t>Instrument</t>
+  </si>
+  <si>
+    <t>Goal/purpose</t>
+  </si>
+  <si>
+    <t>(Glanz et al. 2006)</t>
+  </si>
+  <si>
+    <t>Women in Diet Modifcation arm of Women’s health Initiative.</t>
+  </si>
+  <si>
+    <t>1 month</t>
+  </si>
+  <si>
+    <t>Entries made a mean of 5 days/wk; half ppts made entries 6-7 days/wk. 62% of of days, entries were made &gt;=3 different times.</t>
+  </si>
+  <si>
+    <t>Support participants in following a particular diet plan</t>
+  </si>
+  <si>
+    <t>(L. E. Burke et al. 2011)</t>
+  </si>
+  <si>
+    <t>Overweight/obese (BMI), no medical conditions,</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>SMART trial, 6 mth outcomes</t>
+  </si>
+  <si>
+    <t>(Acharya et al. 2011)</t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>6 mths</t>
+  </si>
+  <si>
+    <t>SMART trial, 6 mth outcomes, secondary analysis</t>
+  </si>
+  <si>
+    <t>(Arsand et al. 2007)</t>
+  </si>
+  <si>
+    <t>12 &amp; 20</t>
+  </si>
+  <si>
+    <t>12 w/ diabetes, 20 general</t>
+  </si>
+  <si>
+    <t>Feedback about the design of the tool (interface)</t>
+  </si>
+  <si>
+    <t>(Bojic et al. 2009)</t>
+  </si>
+  <si>
+    <t>(ages 55-70)</t>
+  </si>
+  <si>
+    <t>Self built</t>
+  </si>
+  <si>
+    <t>Feedback about the design of the tool/interface</t>
+  </si>
+  <si>
+    <t>(P. Jarvinen et al. 2008)</t>
+  </si>
+  <si>
+    <t>“People liked it”</t>
+  </si>
+  <si>
+    <t>Self-built</t>
+  </si>
+  <si>
+    <t>Feedback about the use of the entire system</t>
+  </si>
+  <si>
+    <t>(Mattila et al. 2008)</t>
+  </si>
+  <si>
+    <t>Overweight, had S60 phone</t>
+  </si>
+  <si>
+    <t>3 months</t>
+  </si>
+  <si>
+    <t>Test ability of WD to support CBT-based weight management</t>
+  </si>
+  <si>
+    <t>(Kozakai et al. 2006)</t>
+  </si>
+  <si>
+    <t>Grad student volunteer</t>
+  </si>
+  <si>
+    <t>2 mths</t>
+  </si>
+  <si>
+    <t>Self-built; included scale, blood pressure meter, diet diary</t>
+  </si>
+  <si>
+    <t>Test the tool</t>
+  </si>
+  <si>
+    <t>(Reddy et al. 2007)</t>
+  </si>
+  <si>
+    <t>2 wks</t>
+  </si>
+  <si>
+    <t>Eh, was just image collection analyzed in terms of food/meals</t>
+  </si>
+  <si>
+    <t>Merely collected images + context, no self-monitoring or reflection</t>
+  </si>
+  <si>
+    <t>DietSense prototype, Nokia N80 phone, captured images + audio + context, location every 10 seconds</t>
+  </si>
+  <si>
+    <t>Evaluate potential usefulness for DietSense, collect data to inform future development.</t>
+  </si>
+  <si>
+    <t>(Silva et al. 2011)</t>
+  </si>
+  <si>
+    <t>“Several users”</t>
+  </si>
+  <si>
+    <t>“Several weeks”</t>
+  </si>
+  <si>
+    <t>“There was pretty good feedback from users.”</t>
+  </si>
+  <si>
+    <t>“Several</t>
+  </si>
+  <si>
+    <t>Self-developed Android-based system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (Tsai et al. 2007)</t>
+  </si>
+  <si>
+    <t>PmEB</t>
+  </si>
+  <si>
+    <t>Clinically Overweight (BMI&gt;=25)</t>
+  </si>
+  <si>
+    <t>(Wang et al. 2006)</t>
+  </si>
+  <si>
+    <t>Students majoring in nutrition; “highly motivated”J</t>
+  </si>
+  <si>
+    <t>2 days, 6 mths apart</t>
+  </si>
+  <si>
+    <t>Test the Wellnavi approach, of taking photos &amp; time to enter a record, versus the weighed record or recall</t>
+  </si>
+  <si>
+    <t>(Long et al. 2012)</t>
+  </si>
+  <si>
+    <t>MyPyramid tracker (website) compared to mobile phone food photographs.</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>3 days</t>
+  </si>
+  <si>
+    <t>While photos were helpful, they weren’t perfect, serving sizes were still an issue</t>
+  </si>
+  <si>
+    <t>Whether cell phone photos are an effective memory prompt for using MyPyramid tracker</t>
+  </si>
+  <si>
+    <t>(Atienza et al. 2008)</t>
+  </si>
+  <si>
+    <t>Compared PDA-based assessment</t>
+  </si>
+  <si>
+    <t>Adults &gt;=50yrs</t>
+  </si>
+  <si>
+    <t>8 wks</t>
+  </si>
+  <si>
+    <t>PDA-based, 43-question assessment (triggered 2x/day)</t>
+  </si>
+  <si>
+    <t>(Yon et al. 2007)</t>
+  </si>
+  <si>
+    <t>(71 PDA, 115 paper control)</t>
+  </si>
+  <si>
+    <t>Overweight, participating in weight control program</t>
+  </si>
+  <si>
+    <t>CalorieKing Diet Diary</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Number of Participants</t>
+  </si>
+  <si>
+    <t>Target Population</t>
+  </si>
+  <si>
+    <t>Database Information</t>
+  </si>
+  <si>
+    <t>Custom developed; db built from program materials, ~300 items.Tracked fat, servings of fruit, veggie &amp; grains.</t>
+  </si>
+  <si>
+    <t>Adherence: PDA+FB=90%, PDA=80%, PR=55%</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PDA (w/ &amp; w/o feedback) versus PR  (paper); of the calorie goal was recorded for the week.; Daily self-monitoring, group sessions, daily dietary goals (calories), weekly exercise goals; Adherence to dietary self-monitoring was counted if at least 50% </t>
+  </si>
+  <si>
+    <t>Same as above; DietmatePro on Palm PDAs</t>
+  </si>
+  <si>
+    <t>Targeted for Type 2 diabetes; 4 “focus groups”, all the same people; No in situ eval</t>
+  </si>
+  <si>
+    <t>No in situ eval; Diabetes focus.</t>
+  </si>
+  <si>
+    <t>HyperFit, web &amp; mobile apps.; 4 trials overall.</t>
+  </si>
+  <si>
+    <t>97 individual users;9 nutritionists;5 groups/39 participants;</t>
+  </si>
+  <si>
+    <t>First 2 trials: people interested in weight management; Third trial, tool for support in a weight management group; Fourth, as a tool for nutrition counseling.</t>
+  </si>
+  <si>
+    <t>Individuals: 2 weeks; Counseling: 3 wks; Groups: tasks of tracking for 2-3 days at a time.</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Nutritional data; ·         Technology in infancy; ·         Creating records in food &amp; exercise diary were too time consuming/challenging.</t>
+    </r>
+  </si>
+  <si>
+    <t>Importance and input frequency of food &amp; drink decreased dramatically over the course of the study. People felt it important to be careful in observing at the beginning, but less so later.;Importance of recording weight increased over the study.</t>
+  </si>
+  <si>
+    <t>Wellness Diary/self built;Triage approach</t>
+  </si>
+  <si>
+    <t>Wellness Diary; (weight management study); 1.5 hr lecture on weight change via CBT</t>
+  </si>
+  <si>
+    <t>LOSERS made more entries in all categories than OTHERS group; 79% thought it would help them lose weight.64% wanted to continue using it</t>
+  </si>
+  <si>
+    <t>DietSense; Taking &amp; dealing with images of food eaten</t>
+  </si>
+  <si>
+    <t>SapoFitness; Reflects little insight of persuasive design; Doesn’t identify details of “database testing”</t>
+  </si>
+  <si>
+    <t>“Several scenarios were experimented and the system performed very well, as expected. These experiments included communication with food database, daily food inserted, behaviour of the users, profile changes, and motivation of the users to use the 379 application.”</t>
+  </si>
+  <si>
+    <t>PmEB; Food is chosen from a list of prechosen foods on the web; Paper, PmEB, PmEB+reminders</t>
+  </si>
+  <si>
+    <t>WellNavi.; Students kept 1 weighed food records, took photos, + 24 hr recall.</t>
+  </si>
+  <si>
+    <t>Veggie intake in the PDA group increased more.; Ppts completed ~51% of the assessments.; Week 1=75%, Week 8=40%.</t>
+  </si>
+  <si>
+    <t>Whether PDA intervention increases veggie &amp; whole grain intake; (CHART-D program)</t>
+  </si>
+  <si>
+    <t>6-mth behavioral strategies/self-management skills weight loss program. Weekly meetings.; “First few weeks” were spent trouble-shooting use of software. Positive (personalized) feedback occurred on a weekly basis.</t>
+  </si>
+  <si>
+    <t>Compared to previous study using similar protocol but with pencil/paper, and didn’t find a difference.Overall, those who self-monitored lost more.</t>
+  </si>
+  <si>
+    <t>26% of PDA users liked the “ease of use of entering food and exercise data”, 44% reported they disliked the PDA/software (because they couldn’t find food they eat and couldn’t see the screen). Even with support, ppts still had trouble navigating the software and finding foods.</t>
+  </si>
+  <si>
+    <t>~300 items</t>
+  </si>
+  <si>
+    <t>USDA db, 5000-6000 items</t>
+  </si>
+  <si>
+    <t>2500 items</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>607 w/o barcode, 805 w/ barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food sometimes wasn’t in the database; Selected foods via menu or barcode scan. </t>
+  </si>
+  <si>
+    <t>Not reported</t>
+  </si>
+  <si>
+    <t>750 items</t>
+  </si>
+  <si>
+    <t>None, paper and pencil</t>
+  </si>
+  <si>
+    <t>USDA db, ~6000 items</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Not reported in paper; current CalorieKing Diet Diary states 50,000 records</t>
+  </si>
+  <si>
+    <t>Fukuo</t>
+  </si>
+  <si>
+    <t>PDA, proprietary w/ photos for serving sizes</t>
+  </si>
+  <si>
+    <t>44 w/o diabetes, 16 w/ diabetes</t>
+  </si>
+  <si>
+    <t>7 days</t>
+  </si>
+  <si>
+    <t>PDA agrees w/ recall</t>
+  </si>
 </sst>
 </file>
 
@@ -2059,7 +2441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2191,6 +2573,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2638,7 +3033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2788,6 +3183,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2806,6 +3212,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2813,9 +3222,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2830,23 +3236,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3520,11 +3930,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="44123648"/>
-        <c:axId val="238592576"/>
+        <c:axId val="199597568"/>
+        <c:axId val="200815104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44123648"/>
+        <c:axId val="199597568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3546,7 +3956,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
@@ -3562,7 +3971,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="238592576"/>
+        <c:crossAx val="200815104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3570,7 +3979,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="238592576"/>
+        <c:axId val="200815104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3593,7 +4002,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3610,14 +4018,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44123648"/>
+        <c:crossAx val="199597568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4017,14 +4424,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Component" dataDxfId="2"/>
-    <tableColumn id="2" name="Points" dataDxfId="1"/>
-    <tableColumn id="3" name="Serving goal" dataDxfId="0"/>
+    <tableColumn id="1" name="Component" dataDxfId="3"/>
+    <tableColumn id="2" name="Points" dataDxfId="2"/>
+    <tableColumn id="3" name="Serving goal" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K17" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:K17"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="Reference"/>
+    <tableColumn id="2" name="Column1"/>
+    <tableColumn id="3" name="Number of Participants"/>
+    <tableColumn id="4" name="Target Population"/>
+    <tableColumn id="5" name="Duration"/>
+    <tableColumn id="6" name="Results"/>
+    <tableColumn id="7" name="Challenges"/>
+    <tableColumn id="8" name="Column2"/>
+    <tableColumn id="9" name="Instrument"/>
+    <tableColumn id="10" name="Goal/purpose"/>
+    <tableColumn id="11" name="Database Information"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4341,10 +4768,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4352,31 +4779,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="57"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="65" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4384,8 +4811,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="67"/>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -11192,10 +11619,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="55" t="s">
         <v>512</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="56" t="s">
         <v>513</v>
       </c>
       <c r="C3" t="s">
@@ -11206,10 +11633,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="57" t="s">
         <v>522</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="58" t="s">
         <v>516</v>
       </c>
       <c r="C4">
@@ -11226,8 +11653,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="73" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="59" t="s">
         <v>517</v>
       </c>
       <c r="C5">
@@ -11244,8 +11671,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="73" t="s">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59" t="s">
         <v>518</v>
       </c>
       <c r="C6">
@@ -11262,8 +11689,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="73" t="s">
+      <c r="A7" s="57"/>
+      <c r="B7" s="59" t="s">
         <v>519</v>
       </c>
       <c r="C7">
@@ -11280,8 +11707,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="59" t="s">
         <v>520</v>
       </c>
       <c r="C8">
@@ -11298,8 +11725,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75" t="s">
+      <c r="A9" s="60"/>
+      <c r="B9" s="61" t="s">
         <v>521</v>
       </c>
       <c r="C9">
@@ -11316,10 +11743,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="57" t="s">
         <v>523</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="58" t="s">
         <v>516</v>
       </c>
       <c r="C10">
@@ -11336,8 +11763,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="73" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="59" t="s">
         <v>517</v>
       </c>
       <c r="C11">
@@ -11354,8 +11781,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="73" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="59" t="s">
         <v>518</v>
       </c>
       <c r="C12">
@@ -11372,8 +11799,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="73" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="59" t="s">
         <v>519</v>
       </c>
       <c r="C13">
@@ -11390,8 +11817,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="73" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="59" t="s">
         <v>520</v>
       </c>
       <c r="C14">
@@ -11408,8 +11835,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="75" t="s">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61" t="s">
         <v>521</v>
       </c>
       <c r="C15">
@@ -11426,10 +11853,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="57" t="s">
         <v>524</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="58" t="s">
         <v>516</v>
       </c>
       <c r="C16">
@@ -11446,8 +11873,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="73" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="59" t="s">
         <v>517</v>
       </c>
       <c r="C17">
@@ -11464,8 +11891,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="71"/>
-      <c r="B18" s="73" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="59" t="s">
         <v>518</v>
       </c>
       <c r="C18">
@@ -11482,8 +11909,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="73" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="59" t="s">
         <v>519</v>
       </c>
       <c r="C19">
@@ -11500,8 +11927,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="73" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="59" t="s">
         <v>520</v>
       </c>
       <c r="C20">
@@ -11518,8 +11945,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="60"/>
+      <c r="B21" s="61" t="s">
         <v>521</v>
       </c>
       <c r="C21">
@@ -11536,10 +11963,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="57" t="s">
         <v>525</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="58" t="s">
         <v>516</v>
       </c>
       <c r="C22">
@@ -11556,8 +11983,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="73" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="59" t="s">
         <v>517</v>
       </c>
       <c r="C23">
@@ -11574,8 +12001,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="73" t="s">
+      <c r="A24" s="57"/>
+      <c r="B24" s="59" t="s">
         <v>518</v>
       </c>
       <c r="C24">
@@ -11592,8 +12019,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="73" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="59" t="s">
         <v>519</v>
       </c>
       <c r="C25">
@@ -11610,8 +12037,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="71"/>
-      <c r="B26" s="73" t="s">
+      <c r="A26" s="57"/>
+      <c r="B26" s="59" t="s">
         <v>520</v>
       </c>
       <c r="C26">
@@ -11628,8 +12055,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74"/>
-      <c r="B27" s="75" t="s">
+      <c r="A27" s="60"/>
+      <c r="B27" s="61" t="s">
         <v>521</v>
       </c>
       <c r="C27">
@@ -11646,10 +12073,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="57" t="s">
         <v>526</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="58" t="s">
         <v>516</v>
       </c>
       <c r="C28">
@@ -11666,8 +12093,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="73" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="59" t="s">
         <v>517</v>
       </c>
       <c r="C29">
@@ -11684,8 +12111,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="73" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="59" t="s">
         <v>518</v>
       </c>
       <c r="C30">
@@ -11702,8 +12129,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="71"/>
-      <c r="B31" s="73" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="59" t="s">
         <v>519</v>
       </c>
       <c r="C31">
@@ -11720,8 +12147,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="73" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="59" t="s">
         <v>520</v>
       </c>
       <c r="C32">
@@ -11738,8 +12165,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="75" t="s">
+      <c r="A33" s="60"/>
+      <c r="B33" s="61" t="s">
         <v>521</v>
       </c>
       <c r="C33">
@@ -11756,10 +12183,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="57" t="s">
         <v>527</v>
       </c>
-      <c r="B34" s="73"/>
+      <c r="B34" s="59"/>
       <c r="C34">
         <f>[1]EatenTimeOverTime!AL34</f>
         <v>18</v>
@@ -11783,7 +12210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
@@ -12323,6 +12750,525 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="2700" topLeftCell="C1" activePane="topRight"/>
+      <selection activeCell="B17" sqref="B17"/>
+      <selection pane="topRight" activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>607</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>609</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>535</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>536</v>
+      </c>
+      <c r="H1" s="76" t="s">
+        <v>614</v>
+      </c>
+      <c r="I1" s="76" t="s">
+        <v>537</v>
+      </c>
+      <c r="J1" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="K1" s="77" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76">
+        <v>33</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76" t="s">
+        <v>611</v>
+      </c>
+      <c r="J2" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>615</v>
+      </c>
+      <c r="C3" s="76">
+        <v>210</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>545</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>612</v>
+      </c>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76" t="s">
+        <v>547</v>
+      </c>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="57" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>616</v>
+      </c>
+      <c r="C4" s="76">
+        <v>210</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>549</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>550</v>
+      </c>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76" t="s">
+        <v>551</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>552</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>617</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>553</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>554</v>
+      </c>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76" t="s">
+        <v>555</v>
+      </c>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>556</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>618</v>
+      </c>
+      <c r="C6" s="76">
+        <v>32</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>557</v>
+      </c>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76" t="s">
+        <v>558</v>
+      </c>
+      <c r="J6" s="76" t="s">
+        <v>559</v>
+      </c>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>560</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>619</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>620</v>
+      </c>
+      <c r="D7" s="76" t="s">
+        <v>621</v>
+      </c>
+      <c r="E7" s="76" t="s">
+        <v>622</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>561</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>623</v>
+      </c>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76" t="s">
+        <v>562</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>563</v>
+      </c>
+      <c r="K7" s="57" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>564</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>626</v>
+      </c>
+      <c r="C8" s="76">
+        <v>29</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>565</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>566</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>627</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>624</v>
+      </c>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76" t="s">
+        <v>625</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>567</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>568</v>
+      </c>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76">
+        <v>1</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>569</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>570</v>
+      </c>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76" t="s">
+        <v>643</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76" t="s">
+        <v>571</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>572</v>
+      </c>
+      <c r="K9" s="57" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>573</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>628</v>
+      </c>
+      <c r="C10" s="76">
+        <v>6</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76" t="s">
+        <v>574</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>575</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>576</v>
+      </c>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76" t="s">
+        <v>577</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>578</v>
+      </c>
+      <c r="K10" s="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>579</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>629</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76" t="s">
+        <v>581</v>
+      </c>
+      <c r="F11" s="76" t="s">
+        <v>582</v>
+      </c>
+      <c r="G11" s="76" t="s">
+        <v>583</v>
+      </c>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76" t="s">
+        <v>584</v>
+      </c>
+      <c r="J11" s="76" t="s">
+        <v>630</v>
+      </c>
+      <c r="K11" s="57" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>585</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>631</v>
+      </c>
+      <c r="C12" s="76">
+        <v>15</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>587</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>541</v>
+      </c>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76" t="s">
+        <v>586</v>
+      </c>
+      <c r="J12" s="76"/>
+      <c r="K12" s="57" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>588</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>632</v>
+      </c>
+      <c r="C13" s="76">
+        <v>28</v>
+      </c>
+      <c r="D13" s="76" t="s">
+        <v>589</v>
+      </c>
+      <c r="E13" s="76" t="s">
+        <v>590</v>
+      </c>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76" t="s">
+        <v>591</v>
+      </c>
+      <c r="K13" s="57" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>592</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>593</v>
+      </c>
+      <c r="C14" s="76">
+        <v>69</v>
+      </c>
+      <c r="D14" s="76" t="s">
+        <v>594</v>
+      </c>
+      <c r="E14" s="76" t="s">
+        <v>595</v>
+      </c>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76" t="s">
+        <v>597</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>598</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>599</v>
+      </c>
+      <c r="C15" s="76">
+        <v>27</v>
+      </c>
+      <c r="D15" s="76" t="s">
+        <v>600</v>
+      </c>
+      <c r="E15" s="76" t="s">
+        <v>601</v>
+      </c>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76" t="s">
+        <v>633</v>
+      </c>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="J15" s="76" t="s">
+        <v>634</v>
+      </c>
+      <c r="K15" s="57" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>603</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>635</v>
+      </c>
+      <c r="C16" s="76" t="s">
+        <v>604</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>605</v>
+      </c>
+      <c r="E16" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="F16" s="76" t="s">
+        <v>636</v>
+      </c>
+      <c r="G16" s="76" t="s">
+        <v>637</v>
+      </c>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76" t="s">
+        <v>606</v>
+      </c>
+      <c r="K16" s="57" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>650</v>
+      </c>
+      <c r="C17" t="s">
+        <v>651</v>
+      </c>
+      <c r="D17" t="s">
+        <v>652</v>
+      </c>
+      <c r="E17" t="s">
+        <v>653</v>
+      </c>
+      <c r="F17" t="s">
+        <v>654</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12986,24 +13932,24 @@
       <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="68" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="64"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
@@ -13032,42 +13978,42 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="69" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="73" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="74" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="69"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="74"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="69" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="68" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="64"/>
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="68"/>
     </row>
     <row r="15" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
@@ -13084,28 +14030,28 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="68" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="68"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
-      <c r="B18" s="65" t="s">
+      <c r="A18" s="69"/>
+      <c r="B18" s="72" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -13116,8 +14062,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="61"/>
-      <c r="B19" s="65"/>
+      <c r="A19" s="69"/>
+      <c r="B19" s="72"/>
       <c r="C19" s="32" t="s">
         <v>94</v>
       </c>
@@ -13126,8 +14072,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="61"/>
-      <c r="B20" s="65"/>
+      <c r="A20" s="69"/>
+      <c r="B20" s="72"/>
       <c r="C20" s="32" t="s">
         <v>104</v>
       </c>
@@ -13150,24 +14096,24 @@
       <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="61" t="s">
+      <c r="A23" s="69" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="64" t="s">
+      <c r="D23" s="68" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="64"/>
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="68"/>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
@@ -13249,6 +14195,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
@@ -13263,14 +14217,6 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13862,42 +14808,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68" t="s">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+      <c r="J1" s="75" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="53"/>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="68" t="s">
+      <c r="J2" s="75" t="s">
         <v>180</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -19846,7 +20792,7 @@
         <v>0</v>
       </c>
       <c r="D258">
-        <f t="shared" ref="D258:D321" si="8">C258+B258</f>
+        <f t="shared" ref="D258:D309" si="8">C258+B258</f>
         <v>0</v>
       </c>
       <c r="E258">

--- a/tables.xlsx
+++ b/tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="210" windowWidth="18195" windowHeight="8895" firstSheet="9" activeTab="13"/>
+    <workbookView xWindow="480" yWindow="210" windowWidth="18195" windowHeight="8895" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="651">
   <si>
     <t>User Search Request</t>
   </si>
@@ -2059,9 +2059,6 @@
     <t>Challenges</t>
   </si>
   <si>
-    <t>Instrument</t>
-  </si>
-  <si>
     <t>Goal/purpose</t>
   </si>
   <si>
@@ -2122,9 +2119,6 @@
     <t>(ages 55-70)</t>
   </si>
   <si>
-    <t>Self built</t>
-  </si>
-  <si>
     <t>Feedback about the design of the tool/interface</t>
   </si>
   <si>
@@ -2134,9 +2128,6 @@
     <t>“People liked it”</t>
   </si>
   <si>
-    <t>Self-built</t>
-  </si>
-  <si>
     <t>Feedback about the use of the entire system</t>
   </si>
   <si>
@@ -2206,9 +2197,6 @@
     <t xml:space="preserve"> (Tsai et al. 2007)</t>
   </si>
   <si>
-    <t>PmEB</t>
-  </si>
-  <si>
     <t>Clinically Overweight (BMI&gt;=25)</t>
   </si>
   <si>
@@ -2245,9 +2233,6 @@
     <t>(Atienza et al. 2008)</t>
   </si>
   <si>
-    <t>Compared PDA-based assessment</t>
-  </si>
-  <si>
     <t>Adults &gt;=50yrs</t>
   </si>
   <si>
@@ -2285,9 +2270,6 @@
   </si>
   <si>
     <t>Adherence: PDA+FB=90%, PDA=80%, PR=55%</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>Column2</t>
@@ -2344,12 +2326,6 @@
     <t>Importance and input frequency of food &amp; drink decreased dramatically over the course of the study. People felt it important to be careful in observing at the beginning, but less so later.;Importance of recording weight increased over the study.</t>
   </si>
   <si>
-    <t>Wellness Diary/self built;Triage approach</t>
-  </si>
-  <si>
-    <t>Wellness Diary; (weight management study); 1.5 hr lecture on weight change via CBT</t>
-  </si>
-  <si>
     <t>LOSERS made more entries in all categories than OTHERS group; 79% thought it would help them lose weight.64% wanted to continue using it</t>
   </si>
   <si>
@@ -2432,6 +2408,19 @@
   </si>
   <si>
     <t>PDA agrees w/ recall</t>
+  </si>
+  <si>
+    <t>Platform &amp; Instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Self-built</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web &amp; Mobile apps, self-built. </t>
+  </si>
+  <si>
+    <t>Wellness Diary; (weight management study); 1.5 hr lecture on weight change via CBT;Wellness Diary/self built;Triage approach</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2577,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2653,6 +2642,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDCE6F1"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -3033,7 +3028,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3194,6 +3189,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3236,24 +3249,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3425,6 +3429,291 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet11!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fruit Juice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet11!$B$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet11!$N$2:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>Sheet11!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="216965696"/>
+        <c:axId val="194673408"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="216965696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="194673408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="194673408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="216965696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3930,11 +4219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199597568"/>
-        <c:axId val="200815104"/>
+        <c:axId val="192126464"/>
+        <c:axId val="193344576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199597568"/>
+        <c:axId val="192126464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3971,7 +4260,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200815104"/>
+        <c:crossAx val="193344576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3979,7 +4268,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200815104"/>
+        <c:axId val="193344576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4018,7 +4307,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199597568"/>
+        <c:crossAx val="192126464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4040,6 +4329,41 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4424,32 +4748,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C8" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="A1:C8"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Component" dataDxfId="3"/>
-    <tableColumn id="2" name="Points" dataDxfId="2"/>
-    <tableColumn id="3" name="Serving goal" dataDxfId="1"/>
+    <tableColumn id="1" name="Component" dataDxfId="4"/>
+    <tableColumn id="2" name="Points" dataDxfId="3"/>
+    <tableColumn id="3" name="Serving goal" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K17" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:K17"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:I17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:I17"/>
+  <tableColumns count="9">
     <tableColumn id="1" name="Reference"/>
-    <tableColumn id="2" name="Column1"/>
+    <tableColumn id="2" name="Platform &amp; Instrument"/>
+    <tableColumn id="11" name="Database Information" dataDxfId="0"/>
     <tableColumn id="3" name="Number of Participants"/>
     <tableColumn id="4" name="Target Population"/>
     <tableColumn id="5" name="Duration"/>
     <tableColumn id="6" name="Results"/>
     <tableColumn id="7" name="Challenges"/>
-    <tableColumn id="8" name="Column2"/>
-    <tableColumn id="9" name="Instrument"/>
     <tableColumn id="10" name="Goal/purpose"/>
-    <tableColumn id="11" name="Database Information"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4768,10 +5090,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="71" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -4779,31 +5101,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="66"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="72"/>
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="72"/>
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="67"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="73"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="71" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4811,8 +5133,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="64"/>
-      <c r="B7" s="67"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="73"/>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -10654,15 +10976,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="A1:M23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -10702,8 +11024,44 @@
       <c r="M1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" t="s">
+        <v>504</v>
+      </c>
+      <c r="S1" t="s">
+        <v>505</v>
+      </c>
+      <c r="T1" t="s">
+        <v>506</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>507</v>
+      </c>
+      <c r="W1" t="s">
+        <v>508</v>
+      </c>
+      <c r="X1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>509</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>510</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -10743,8 +11101,57 @@
       <c r="M2" s="54">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="54">
+        <v>1</v>
+      </c>
+      <c r="P2" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="54">
+        <v>2</v>
+      </c>
+      <c r="R2" s="54">
+        <f>Q2+1</f>
+        <v>3</v>
+      </c>
+      <c r="S2" s="54">
+        <f t="shared" ref="S2:AA2" si="0">R2+1</f>
+        <v>4</v>
+      </c>
+      <c r="T2" s="54">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U2" s="54">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V2" s="54">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W2" s="54">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="X2" s="54">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y2" s="54">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Z2" s="54">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="AA2" s="54">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>159</v>
       </c>
@@ -10784,8 +11191,57 @@
       <c r="M3" s="54">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="54">
+        <v>2</v>
+      </c>
+      <c r="P3" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="54">
+        <v>2</v>
+      </c>
+      <c r="R3" s="54">
+        <f t="shared" ref="R3:AA3" si="1">Q3+1</f>
+        <v>3</v>
+      </c>
+      <c r="S3" s="54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T3" s="54">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="U3" s="54">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V3" s="54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="W3" s="54">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="X3" s="54">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y3" s="54">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z3" s="54">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AA3" s="54">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>160</v>
       </c>
@@ -10825,8 +11281,58 @@
       <c r="M4" s="54">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="54">
+        <f>N3+1</f>
+        <v>3</v>
+      </c>
+      <c r="P4" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="54">
+        <v>2</v>
+      </c>
+      <c r="R4" s="54">
+        <f t="shared" ref="R4:AA4" si="2">Q4+1</f>
+        <v>3</v>
+      </c>
+      <c r="S4" s="54">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="T4" s="54">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U4" s="54">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="V4" s="54">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="W4" s="54">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="X4" s="54">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Y4" s="54">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="Z4" s="54">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AA4" s="54">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -10866,8 +11372,58 @@
       <c r="M5" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="54">
+        <f t="shared" ref="N5:N21" si="3">N4+1</f>
+        <v>4</v>
+      </c>
+      <c r="P5" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="54">
+        <v>2</v>
+      </c>
+      <c r="R5" s="54">
+        <f t="shared" ref="R5:AA5" si="4">Q5+1</f>
+        <v>3</v>
+      </c>
+      <c r="S5" s="54">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="T5" s="54">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="U5" s="54">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="V5" s="54">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="W5" s="54">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="X5" s="54">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="Y5" s="54">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="Z5" s="54">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="AA5" s="54">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>162</v>
       </c>
@@ -10907,8 +11463,58 @@
       <c r="M6" s="54">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="54">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="P6" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="54">
+        <v>2</v>
+      </c>
+      <c r="R6" s="54">
+        <f t="shared" ref="R6:AA6" si="5">Q6+1</f>
+        <v>3</v>
+      </c>
+      <c r="S6" s="54">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T6" s="54">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="U6" s="54">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="V6" s="54">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="W6" s="54">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="X6" s="54">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="Y6" s="54">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="Z6" s="54">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="AA6" s="54">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>163</v>
       </c>
@@ -10948,8 +11554,58 @@
       <c r="M7" s="54">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="54">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="P7" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="54">
+        <v>2</v>
+      </c>
+      <c r="R7" s="54">
+        <f t="shared" ref="R7:AA7" si="6">Q7+1</f>
+        <v>3</v>
+      </c>
+      <c r="S7" s="54">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="T7" s="54">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="U7" s="54">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="V7" s="54">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="W7" s="54">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="X7" s="54">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="Y7" s="54">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="Z7" s="54">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="AA7" s="54">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>164</v>
       </c>
@@ -10989,8 +11645,58 @@
       <c r="M8" s="54">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="54">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="P8" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="54">
+        <v>2</v>
+      </c>
+      <c r="R8" s="54">
+        <f t="shared" ref="R8:AA8" si="7">Q8+1</f>
+        <v>3</v>
+      </c>
+      <c r="S8" s="54">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="T8" s="54">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="U8" s="54">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="V8" s="54">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="W8" s="54">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="X8" s="54">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Y8" s="54">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Z8" s="54">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="AA8" s="54">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>165</v>
       </c>
@@ -11030,8 +11736,58 @@
       <c r="M9" s="54">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="54">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="P9" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="54">
+        <v>2</v>
+      </c>
+      <c r="R9" s="54">
+        <f t="shared" ref="R9:AA9" si="8">Q9+1</f>
+        <v>3</v>
+      </c>
+      <c r="S9" s="54">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="T9" s="54">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="U9" s="54">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="V9" s="54">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="W9" s="54">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="X9" s="54">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="Y9" s="54">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="Z9" s="54">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="AA9" s="54">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -11071,8 +11827,58 @@
       <c r="M10" s="54">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="54">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="P10" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="54">
+        <v>2</v>
+      </c>
+      <c r="R10" s="54">
+        <f t="shared" ref="R10:AA10" si="9">Q10+1</f>
+        <v>3</v>
+      </c>
+      <c r="S10" s="54">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="T10" s="54">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="U10" s="54">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="V10" s="54">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="W10" s="54">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="X10" s="54">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="Y10" s="54">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="Z10" s="54">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="AA10" s="54">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -11112,8 +11918,58 @@
       <c r="M11" s="54">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="54">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="P11" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="54">
+        <v>2</v>
+      </c>
+      <c r="R11" s="54">
+        <f t="shared" ref="R11:AA11" si="10">Q11+1</f>
+        <v>3</v>
+      </c>
+      <c r="S11" s="54">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="T11" s="54">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="U11" s="54">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V11" s="54">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="W11" s="54">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="X11" s="54">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="Y11" s="54">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="Z11" s="54">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="AA11" s="54">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>168</v>
       </c>
@@ -11153,8 +12009,58 @@
       <c r="M12" s="54">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="54">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="P12" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="54">
+        <v>2</v>
+      </c>
+      <c r="R12" s="54">
+        <f t="shared" ref="R12:AA12" si="11">Q12+1</f>
+        <v>3</v>
+      </c>
+      <c r="S12" s="54">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="T12" s="54">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="U12" s="54">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="V12" s="54">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="W12" s="54">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="X12" s="54">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="Y12" s="54">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="Z12" s="54">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AA12" s="54">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>169</v>
       </c>
@@ -11194,8 +12100,58 @@
       <c r="M13" s="54">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="54">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="P13" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="54">
+        <v>2</v>
+      </c>
+      <c r="R13" s="54">
+        <f t="shared" ref="R13:AA13" si="12">Q13+1</f>
+        <v>3</v>
+      </c>
+      <c r="S13" s="54">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="T13" s="54">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="U13" s="54">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="V13" s="54">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="W13" s="54">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="X13" s="54">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="Y13" s="54">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="Z13" s="54">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="AA13" s="54">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>170</v>
       </c>
@@ -11235,8 +12191,58 @@
       <c r="M14" s="54">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="54">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="P14" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="54">
+        <v>2</v>
+      </c>
+      <c r="R14" s="54">
+        <f t="shared" ref="R14:AA14" si="13">Q14+1</f>
+        <v>3</v>
+      </c>
+      <c r="S14" s="54">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="T14" s="54">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="U14" s="54">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="V14" s="54">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="W14" s="54">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="X14" s="54">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="Y14" s="54">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="Z14" s="54">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="AA14" s="54">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>171</v>
       </c>
@@ -11276,8 +12282,58 @@
       <c r="M15" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="54">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="P15" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="54">
+        <v>2</v>
+      </c>
+      <c r="R15" s="54">
+        <f t="shared" ref="R15:AA15" si="14">Q15+1</f>
+        <v>3</v>
+      </c>
+      <c r="S15" s="54">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="T15" s="54">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="U15" s="54">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="V15" s="54">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="W15" s="54">
+        <f t="shared" si="14"/>
+        <v>8</v>
+      </c>
+      <c r="X15" s="54">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="Y15" s="54">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="Z15" s="54">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="AA15" s="54">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>172</v>
       </c>
@@ -11317,8 +12373,58 @@
       <c r="M16" s="54">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="54">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="P16" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="54">
+        <v>2</v>
+      </c>
+      <c r="R16" s="54">
+        <f t="shared" ref="R16:AA16" si="15">Q16+1</f>
+        <v>3</v>
+      </c>
+      <c r="S16" s="54">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="T16" s="54">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="U16" s="54">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="V16" s="54">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="W16" s="54">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="X16" s="54">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="Y16" s="54">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="Z16" s="54">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="AA16" s="54">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>173</v>
       </c>
@@ -11358,8 +12464,58 @@
       <c r="M17" s="54">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="54">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="P17" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="54">
+        <v>2</v>
+      </c>
+      <c r="R17" s="54">
+        <f t="shared" ref="R17:AA17" si="16">Q17+1</f>
+        <v>3</v>
+      </c>
+      <c r="S17" s="54">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="T17" s="54">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="U17" s="54">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="V17" s="54">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="W17" s="54">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="X17" s="54">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="Y17" s="54">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="Z17" s="54">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="AA17" s="54">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>174</v>
       </c>
@@ -11399,8 +12555,58 @@
       <c r="M18" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="54">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="P18" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="54">
+        <v>2</v>
+      </c>
+      <c r="R18" s="54">
+        <f t="shared" ref="R18:AA18" si="17">Q18+1</f>
+        <v>3</v>
+      </c>
+      <c r="S18" s="54">
+        <f t="shared" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="T18" s="54">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="U18" s="54">
+        <f t="shared" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="V18" s="54">
+        <f t="shared" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="W18" s="54">
+        <f t="shared" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="X18" s="54">
+        <f t="shared" si="17"/>
+        <v>9</v>
+      </c>
+      <c r="Y18" s="54">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="Z18" s="54">
+        <f t="shared" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="AA18" s="54">
+        <f t="shared" si="17"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>175</v>
       </c>
@@ -11440,8 +12646,58 @@
       <c r="M19" s="54">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="54">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="P19" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="54">
+        <v>2</v>
+      </c>
+      <c r="R19" s="54">
+        <f t="shared" ref="R19:AA19" si="18">Q19+1</f>
+        <v>3</v>
+      </c>
+      <c r="S19" s="54">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="T19" s="54">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="U19" s="54">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="V19" s="54">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="W19" s="54">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="X19" s="54">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="Y19" s="54">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="Z19" s="54">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="AA19" s="54">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>176</v>
       </c>
@@ -11481,8 +12737,58 @@
       <c r="M20" s="54">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="54">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="P20" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="54">
+        <v>2</v>
+      </c>
+      <c r="R20" s="54">
+        <f t="shared" ref="R20:AA20" si="19">Q20+1</f>
+        <v>3</v>
+      </c>
+      <c r="S20" s="54">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="T20" s="54">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="U20" s="54">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="V20" s="54">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="W20" s="54">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="X20" s="54">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="Y20" s="54">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="Z20" s="54">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="AA20" s="54">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>177</v>
       </c>
@@ -11522,8 +12828,58 @@
       <c r="M21" s="54">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="54">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="P21" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="54">
+        <v>2</v>
+      </c>
+      <c r="R21" s="54">
+        <f t="shared" ref="R21:AA21" si="20">Q21+1</f>
+        <v>3</v>
+      </c>
+      <c r="S21" s="54">
+        <f t="shared" si="20"/>
+        <v>4</v>
+      </c>
+      <c r="T21" s="54">
+        <f t="shared" si="20"/>
+        <v>5</v>
+      </c>
+      <c r="U21" s="54">
+        <f t="shared" si="20"/>
+        <v>6</v>
+      </c>
+      <c r="V21" s="54">
+        <f t="shared" si="20"/>
+        <v>7</v>
+      </c>
+      <c r="W21" s="54">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="X21" s="54">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="Y21" s="54">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="Z21" s="54">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="AA21" s="54">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B22" s="54"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
@@ -11537,7 +12893,7 @@
       <c r="L22" s="54"/>
       <c r="M22" s="54"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>179</v>
       </c>
@@ -11546,52 +12902,101 @@
         <v>6.0750000000000002</v>
       </c>
       <c r="C23" s="54">
-        <f t="shared" ref="C23:M23" si="0">AVERAGE(C2:C21)</f>
+        <f t="shared" ref="C23:M23" si="21">AVERAGE(C2:C21)</f>
         <v>24.35</v>
       </c>
       <c r="D23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>30.843333333333334</v>
       </c>
       <c r="E23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>19.125</v>
       </c>
       <c r="F23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>45.917395021645021</v>
       </c>
       <c r="G23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>26.95</v>
       </c>
       <c r="H23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>58.013257575757578</v>
       </c>
       <c r="I23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>37.730681818181814</v>
       </c>
       <c r="J23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>43.493811688311688</v>
       </c>
       <c r="K23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>42.254678571428578</v>
       </c>
       <c r="L23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>33.551518451948056</v>
       </c>
       <c r="M23" s="54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="21"/>
         <v>16.524999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B24" s="54">
+        <v>1</v>
+      </c>
+      <c r="C24" s="54">
+        <v>2</v>
+      </c>
+      <c r="D24" s="54">
+        <f>C24+1</f>
+        <v>3</v>
+      </c>
+      <c r="E24" s="54">
+        <f t="shared" ref="E24:M24" si="22">D24+1</f>
+        <v>4</v>
+      </c>
+      <c r="F24" s="54">
+        <f t="shared" si="22"/>
+        <v>5</v>
+      </c>
+      <c r="G24" s="54">
+        <f t="shared" si="22"/>
+        <v>6</v>
+      </c>
+      <c r="H24" s="54">
+        <f t="shared" si="22"/>
+        <v>7</v>
+      </c>
+      <c r="I24" s="54">
+        <f t="shared" si="22"/>
+        <v>8</v>
+      </c>
+      <c r="J24" s="54">
+        <f t="shared" si="22"/>
+        <v>9</v>
+      </c>
+      <c r="K24" s="54">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="L24" s="54">
+        <f t="shared" si="22"/>
+        <v>11</v>
+      </c>
+      <c r="M24" s="54">
+        <f t="shared" si="22"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12757,510 +14162,482 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2700" topLeftCell="C1" activePane="topRight"/>
-      <selection activeCell="B17" sqref="B17"/>
-      <selection pane="topRight" activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" customWidth="1"/>
-    <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="23.28515625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="62" t="s">
+        <v>602</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>647</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>605</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>603</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="62" t="s">
+        <v>535</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>536</v>
+      </c>
+      <c r="I1" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="K1" s="62" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>538</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>606</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" s="62">
+        <v>33</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>539</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>540</v>
+      </c>
+      <c r="G2" s="62" t="s">
+        <v>541</v>
+      </c>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62" t="s">
+        <v>542</v>
+      </c>
+      <c r="K2" s="62"/>
+    </row>
+    <row r="3" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>543</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>609</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>631</v>
+      </c>
+      <c r="D3" s="62">
+        <v>210</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>544</v>
+      </c>
+      <c r="F3" s="62" t="s">
+        <v>545</v>
+      </c>
+      <c r="G3" s="62" t="s">
         <v>607</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="K3" s="62" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>610</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="62">
+        <v>210</v>
+      </c>
+      <c r="E4" s="62" t="s">
+        <v>548</v>
+      </c>
+      <c r="F4" s="62" t="s">
+        <v>549</v>
+      </c>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="K4" s="62" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>551</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="62" t="s">
+        <v>552</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>553</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62" t="s">
+        <v>554</v>
+      </c>
+      <c r="K5" s="62"/>
+    </row>
+    <row r="6" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>555</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="62">
+        <v>32</v>
+      </c>
+      <c r="E6" s="62" t="s">
+        <v>556</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62" t="s">
+        <v>557</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>558</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="57" t="s">
+        <v>632</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>614</v>
+      </c>
+      <c r="E7" s="62" t="s">
+        <v>615</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="G7" s="62" t="s">
+        <v>559</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>617</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>560</v>
+      </c>
+      <c r="K7" s="62" t="s">
         <v>613</v>
       </c>
-      <c r="C1" s="76" t="s">
-        <v>608</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>609</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>535</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>536</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>614</v>
-      </c>
-      <c r="I1" s="76" t="s">
-        <v>537</v>
-      </c>
-      <c r="J1" s="76" t="s">
-        <v>538</v>
-      </c>
-      <c r="K1" s="77" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="164.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
-        <v>539</v>
-      </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76">
-        <v>33</v>
-      </c>
-      <c r="D2" s="76" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>561</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>650</v>
+      </c>
+      <c r="C8" s="57" t="s">
+        <v>633</v>
+      </c>
+      <c r="D8" s="62">
+        <v>29</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>562</v>
+      </c>
+      <c r="F8" s="62" t="s">
+        <v>563</v>
+      </c>
+      <c r="G8" s="62" t="s">
+        <v>619</v>
+      </c>
+      <c r="H8" s="62" t="s">
+        <v>618</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>564</v>
+      </c>
+      <c r="K8" s="62"/>
+    </row>
+    <row r="9" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>568</v>
+      </c>
+      <c r="C9" s="57" t="s">
+        <v>634</v>
+      </c>
+      <c r="D9" s="62">
+        <v>1</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>566</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>567</v>
+      </c>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62" t="s">
+        <v>635</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>569</v>
+      </c>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>574</v>
+      </c>
+      <c r="C10" s="57">
+        <v>0</v>
+      </c>
+      <c r="D10" s="62">
+        <v>6</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62" t="s">
+        <v>571</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>572</v>
+      </c>
+      <c r="H10" s="62" t="s">
+        <v>573</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>575</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="375" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>581</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>636</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>577</v>
+      </c>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62" t="s">
+        <v>578</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>579</v>
+      </c>
+      <c r="H11" s="62" t="s">
+        <v>580</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>622</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>582</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>623</v>
+      </c>
+      <c r="C12" s="57" t="s">
+        <v>637</v>
+      </c>
+      <c r="D12" s="62">
+        <v>15</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>583</v>
+      </c>
+      <c r="F12" s="62" t="s">
         <v>540</v>
       </c>
-      <c r="E2" s="76" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" s="76" t="s">
-        <v>542</v>
-      </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76" t="s">
-        <v>611</v>
-      </c>
-      <c r="J2" s="76" t="s">
-        <v>543</v>
-      </c>
-      <c r="K2" s="78" t="s">
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>584</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>624</v>
+      </c>
+      <c r="C13" s="57" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>615</v>
-      </c>
-      <c r="C3" s="76">
-        <v>210</v>
-      </c>
-      <c r="D3" s="76" t="s">
+      <c r="D13" s="62">
+        <v>28</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>585</v>
+      </c>
+      <c r="F13" s="62" t="s">
+        <v>586</v>
+      </c>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62" t="s">
+        <v>587</v>
+      </c>
+      <c r="K13" s="62"/>
+    </row>
+    <row r="14" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>588</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>589</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>639</v>
+      </c>
+      <c r="D14" s="62">
+        <v>69</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>590</v>
+      </c>
+      <c r="F14" s="62" t="s">
+        <v>591</v>
+      </c>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62" t="s">
+        <v>592</v>
+      </c>
+      <c r="I14" s="62" t="s">
+        <v>593</v>
+      </c>
+      <c r="K14" s="62"/>
+    </row>
+    <row r="15" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>594</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>597</v>
+      </c>
+      <c r="C15" s="57" t="s">
+        <v>640</v>
+      </c>
+      <c r="D15" s="62">
+        <v>27</v>
+      </c>
+      <c r="E15" s="62" t="s">
+        <v>595</v>
+      </c>
+      <c r="F15" s="62" t="s">
+        <v>596</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62" t="s">
+        <v>625</v>
+      </c>
+      <c r="I15" s="62" t="s">
+        <v>626</v>
+      </c>
+      <c r="K15" s="62"/>
+    </row>
+    <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
+        <v>598</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>627</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>641</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>599</v>
+      </c>
+      <c r="E16" s="62" t="s">
+        <v>600</v>
+      </c>
+      <c r="F16" s="62" t="s">
         <v>545</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>546</v>
-      </c>
-      <c r="F3" s="76" t="s">
-        <v>612</v>
-      </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76" t="s">
-        <v>547</v>
-      </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="57" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76" t="s">
-        <v>548</v>
-      </c>
-      <c r="B4" s="76" t="s">
-        <v>616</v>
-      </c>
-      <c r="C4" s="76">
-        <v>210</v>
-      </c>
-      <c r="D4" s="76" t="s">
-        <v>549</v>
-      </c>
-      <c r="E4" s="76" t="s">
-        <v>550</v>
-      </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76" t="s">
-        <v>551</v>
-      </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="76" t="s">
-        <v>552</v>
-      </c>
-      <c r="B5" s="76" t="s">
-        <v>617</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>553</v>
-      </c>
-      <c r="D5" s="76" t="s">
-        <v>554</v>
-      </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76" t="s">
-        <v>555</v>
-      </c>
-      <c r="K5" s="57"/>
-    </row>
-    <row r="6" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76" t="s">
-        <v>556</v>
-      </c>
-      <c r="B6" s="76" t="s">
-        <v>618</v>
-      </c>
-      <c r="C6" s="76">
-        <v>32</v>
-      </c>
-      <c r="D6" s="76" t="s">
-        <v>557</v>
-      </c>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76" t="s">
-        <v>558</v>
-      </c>
-      <c r="J6" s="76" t="s">
-        <v>559</v>
-      </c>
-      <c r="K6" s="57"/>
-    </row>
-    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
-      <c r="A7" s="76" t="s">
-        <v>560</v>
-      </c>
-      <c r="B7" s="76" t="s">
-        <v>619</v>
-      </c>
-      <c r="C7" s="76" t="s">
-        <v>620</v>
-      </c>
-      <c r="D7" s="76" t="s">
-        <v>621</v>
-      </c>
-      <c r="E7" s="76" t="s">
-        <v>622</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>561</v>
-      </c>
-      <c r="G7" s="79" t="s">
-        <v>623</v>
-      </c>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76" t="s">
-        <v>562</v>
-      </c>
-      <c r="J7" s="76" t="s">
-        <v>563</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="201" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76" t="s">
-        <v>564</v>
-      </c>
-      <c r="B8" s="76" t="s">
-        <v>626</v>
-      </c>
-      <c r="C8" s="76">
-        <v>29</v>
-      </c>
-      <c r="D8" s="76" t="s">
-        <v>565</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>566</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>627</v>
-      </c>
-      <c r="G8" s="76" t="s">
-        <v>624</v>
-      </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76" t="s">
-        <v>625</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>567</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>568</v>
-      </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76">
-        <v>1</v>
-      </c>
-      <c r="D9" s="76" t="s">
-        <v>569</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>570</v>
-      </c>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76" t="s">
+      <c r="G16" s="62" t="s">
+        <v>628</v>
+      </c>
+      <c r="H16" s="62" t="s">
+        <v>629</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>601</v>
+      </c>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>642</v>
+      </c>
+      <c r="D17" t="s">
         <v>643</v>
       </c>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76" t="s">
-        <v>571</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>572</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76" t="s">
-        <v>573</v>
-      </c>
-      <c r="B10" s="76" t="s">
-        <v>628</v>
-      </c>
-      <c r="C10" s="76">
-        <v>6</v>
-      </c>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76" t="s">
-        <v>574</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>575</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>576</v>
-      </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76" t="s">
-        <v>577</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>578</v>
-      </c>
-      <c r="K10" s="57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11" s="76" t="s">
-        <v>579</v>
-      </c>
-      <c r="B11" s="76" t="s">
-        <v>629</v>
-      </c>
-      <c r="C11" s="76" t="s">
-        <v>580</v>
-      </c>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76" t="s">
-        <v>581</v>
-      </c>
-      <c r="F11" s="76" t="s">
-        <v>582</v>
-      </c>
-      <c r="G11" s="76" t="s">
-        <v>583</v>
-      </c>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76" t="s">
-        <v>584</v>
-      </c>
-      <c r="J11" s="76" t="s">
-        <v>630</v>
-      </c>
-      <c r="K11" s="57" t="s">
+      <c r="E17" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="76" t="s">
-        <v>585</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>631</v>
-      </c>
-      <c r="C12" s="76">
-        <v>15</v>
-      </c>
-      <c r="D12" s="76" t="s">
-        <v>587</v>
-      </c>
-      <c r="E12" s="76" t="s">
-        <v>541</v>
-      </c>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76" t="s">
-        <v>586</v>
-      </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="57" t="s">
+      <c r="F17" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76" t="s">
-        <v>588</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>632</v>
-      </c>
-      <c r="C13" s="76">
-        <v>28</v>
-      </c>
-      <c r="D13" s="76" t="s">
-        <v>589</v>
-      </c>
-      <c r="E13" s="76" t="s">
-        <v>590</v>
-      </c>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76" t="s">
-        <v>591</v>
-      </c>
-      <c r="K13" s="57" t="s">
+      <c r="G17" t="s">
         <v>646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>592</v>
-      </c>
-      <c r="B14" s="76" t="s">
-        <v>593</v>
-      </c>
-      <c r="C14" s="76">
-        <v>69</v>
-      </c>
-      <c r="D14" s="76" t="s">
-        <v>594</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>595</v>
-      </c>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76" t="s">
-        <v>596</v>
-      </c>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76" t="s">
-        <v>597</v>
-      </c>
-      <c r="K14" s="57" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>598</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>599</v>
-      </c>
-      <c r="C15" s="76">
-        <v>27</v>
-      </c>
-      <c r="D15" s="76" t="s">
-        <v>600</v>
-      </c>
-      <c r="E15" s="76" t="s">
-        <v>601</v>
-      </c>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76" t="s">
-        <v>633</v>
-      </c>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76" t="s">
-        <v>602</v>
-      </c>
-      <c r="J15" s="76" t="s">
-        <v>634</v>
-      </c>
-      <c r="K15" s="57" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>603</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>635</v>
-      </c>
-      <c r="C16" s="76" t="s">
-        <v>604</v>
-      </c>
-      <c r="D16" s="76" t="s">
-        <v>605</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>546</v>
-      </c>
-      <c r="F16" s="76" t="s">
-        <v>636</v>
-      </c>
-      <c r="G16" s="76" t="s">
-        <v>637</v>
-      </c>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76" t="s">
-        <v>606</v>
-      </c>
-      <c r="K16" s="57" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>650</v>
-      </c>
-      <c r="C17" t="s">
-        <v>651</v>
-      </c>
-      <c r="D17" t="s">
-        <v>652</v>
-      </c>
-      <c r="E17" t="s">
-        <v>653</v>
-      </c>
-      <c r="F17" t="s">
-        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -13932,24 +15309,24 @@
       <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="74" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="68"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="74"/>
     </row>
     <row r="9" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
@@ -13978,42 +15355,42 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73" t="s">
+      <c r="B11" s="78"/>
+      <c r="C11" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="80" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="74"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="80"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="75" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="74" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="68"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="74"/>
     </row>
     <row r="15" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
@@ -14030,28 +15407,28 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="75" t="s">
         <v>115</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="76" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="74" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="68"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="74"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="78" t="s">
         <v>103</v>
       </c>
       <c r="C18" s="32" t="s">
@@ -14062,8 +15439,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="72"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="32" t="s">
         <v>94</v>
       </c>
@@ -14072,8 +15449,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="72"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="32" t="s">
         <v>104</v>
       </c>
@@ -14096,24 +15473,24 @@
       <c r="D22" s="33"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="76" t="s">
         <v>122</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="74" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="68"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="74"/>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
@@ -14808,42 +16185,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75" t="s">
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
       <c r="E2" s="53"/>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
       <c r="I2" s="53"/>
-      <c r="J2" s="75" t="s">
+      <c r="J2" s="81" t="s">
         <v>180</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
